--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N2">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O2">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P2">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q2">
-        <v>315.9438970597294</v>
+        <v>1624.311968565598</v>
       </c>
       <c r="R2">
-        <v>1263.775588238918</v>
+        <v>6497.247874262391</v>
       </c>
       <c r="S2">
-        <v>0.01333382577210847</v>
+        <v>0.03737541397141014</v>
       </c>
       <c r="T2">
-        <v>0.00883048381654457</v>
+        <v>0.02663886546113106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.054378</v>
       </c>
       <c r="O3">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P3">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q3">
-        <v>653.8001346103842</v>
+        <v>608.2711259636784</v>
       </c>
       <c r="R3">
-        <v>3922.800807662305</v>
+        <v>3649.62675578207</v>
       </c>
       <c r="S3">
-        <v>0.02759242120454016</v>
+        <v>0.01399631695124711</v>
       </c>
       <c r="T3">
-        <v>0.02741011091681349</v>
+        <v>0.01496355349404921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N4">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O4">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P4">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q4">
-        <v>19.48607497528799</v>
+        <v>9.212293135885</v>
       </c>
       <c r="R4">
-        <v>116.916449851728</v>
+        <v>55.27375881531</v>
       </c>
       <c r="S4">
-        <v>0.0008223736274722634</v>
+        <v>0.0002119748399586929</v>
       </c>
       <c r="T4">
-        <v>0.0008169399914918655</v>
+        <v>0.0002266236802269468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N5">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O5">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P5">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q5">
-        <v>4269.836726373023</v>
+        <v>7398.813902247933</v>
       </c>
       <c r="R5">
-        <v>17079.34690549209</v>
+        <v>29595.25560899173</v>
       </c>
       <c r="S5">
-        <v>0.1802005340652129</v>
+        <v>0.1702466877333565</v>
       </c>
       <c r="T5">
-        <v>0.1193399349138133</v>
+        <v>0.1213412275032246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N6">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O6">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P6">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q6">
-        <v>990.970538584886</v>
+        <v>60.20592983725835</v>
       </c>
       <c r="R6">
-        <v>5945.823231509316</v>
+        <v>361.2355790235501</v>
       </c>
       <c r="S6">
-        <v>0.04182207230382222</v>
+        <v>0.001385338281529955</v>
       </c>
       <c r="T6">
-        <v>0.04154574301838131</v>
+        <v>0.00148107416795678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H7">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I7">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J7">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N7">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O7">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P7">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q7">
-        <v>6.855539625779832</v>
+        <v>31.85202652370667</v>
       </c>
       <c r="R7">
-        <v>41.13323775467899</v>
+        <v>191.11215914224</v>
       </c>
       <c r="S7">
-        <v>0.0002893253257765975</v>
+        <v>0.0007329150435326581</v>
       </c>
       <c r="T7">
-        <v>0.0002874136782630309</v>
+        <v>0.0007835642404137712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N8">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O8">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P8">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q8">
-        <v>101.0738115496297</v>
+        <v>558.5292493342837</v>
       </c>
       <c r="R8">
-        <v>606.442869297778</v>
+        <v>3351.175496005702</v>
       </c>
       <c r="S8">
-        <v>0.004265632619803077</v>
+        <v>0.01285175650552178</v>
       </c>
       <c r="T8">
-        <v>0.004237448478060395</v>
+        <v>0.01373989647653234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.054378</v>
       </c>
       <c r="O9">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P9">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q9">
         <v>209.1576137779918</v>
@@ -1013,10 +1013,10 @@
         <v>1882.418524001926</v>
       </c>
       <c r="S9">
-        <v>0.008827108885405877</v>
+        <v>0.004812716123201463</v>
       </c>
       <c r="T9">
-        <v>0.01315317882926236</v>
+        <v>0.007717959168692028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N10">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O10">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P10">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q10">
-        <v>6.233802546032</v>
+        <v>3.167701321795334</v>
       </c>
       <c r="R10">
-        <v>56.104222914288</v>
+        <v>28.509311896158</v>
       </c>
       <c r="S10">
-        <v>0.0002630860662923422</v>
+        <v>7.28887987844081E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003920216825637625</v>
+        <v>0.0001168888333473647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N11">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O11">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P11">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q11">
-        <v>1365.966162490951</v>
+        <v>2544.125792803152</v>
       </c>
       <c r="R11">
-        <v>8195.796974945704</v>
+        <v>15264.75475681891</v>
       </c>
       <c r="S11">
-        <v>0.05764806660533995</v>
+        <v>0.05854032756117054</v>
       </c>
       <c r="T11">
-        <v>0.05726717086836215</v>
+        <v>0.0625858449813604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>187.223767</v>
       </c>
       <c r="I12">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J12">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N12">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O12">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P12">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q12">
-        <v>317.0220105540707</v>
+        <v>20.70216402282112</v>
       </c>
       <c r="R12">
-        <v>2853.198094986636</v>
+        <v>186.31947620539</v>
       </c>
       <c r="S12">
-        <v>0.01337932555111952</v>
+        <v>0.0004763567377640268</v>
       </c>
       <c r="T12">
-        <v>0.0199363873124697</v>
+        <v>0.000763914130332801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>187.223767</v>
       </c>
       <c r="I13">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J13">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N13">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O13">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P13">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q13">
-        <v>2.193160009278778</v>
+        <v>10.95250715893689</v>
       </c>
       <c r="R13">
-        <v>19.738440083509</v>
+        <v>98.572564430432</v>
       </c>
       <c r="S13">
-        <v>9.255824760732941E-05</v>
+        <v>0.0002520171598880684</v>
       </c>
       <c r="T13">
-        <v>0.0001379200368667901</v>
+        <v>0.0004041497773884848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N14">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O14">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P14">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q14">
-        <v>231.3747610657926</v>
+        <v>1539.322700099678</v>
       </c>
       <c r="R14">
-        <v>1388.248566394756</v>
+        <v>9235.936200598069</v>
       </c>
       <c r="S14">
-        <v>0.009764742350858779</v>
+        <v>0.03541981113555455</v>
       </c>
       <c r="T14">
-        <v>0.009700224163985461</v>
+        <v>0.03786755047932559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.054378</v>
       </c>
       <c r="O15">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P15">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q15">
-        <v>478.7965564078057</v>
+        <v>576.4444085442121</v>
       </c>
       <c r="R15">
-        <v>4309.169007670252</v>
+        <v>5187.99967689791</v>
       </c>
       <c r="S15">
-        <v>0.02020671999946957</v>
+        <v>0.01326398427013407</v>
       </c>
       <c r="T15">
-        <v>0.03010981343453029</v>
+        <v>0.02127091779162949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N16">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O16">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P16">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q16">
-        <v>14.270210576864</v>
+        <v>8.730276091336666</v>
       </c>
       <c r="R16">
-        <v>128.431895191776</v>
+        <v>78.57248482202999</v>
       </c>
       <c r="S16">
-        <v>0.0006022477513697067</v>
+        <v>0.0002008836290768455</v>
       </c>
       <c r="T16">
-        <v>0.0008974028162701943</v>
+        <v>0.0003221489917926887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H17">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I17">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J17">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N17">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O17">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P17">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q17">
-        <v>3126.923677110101</v>
+        <v>7011.683970783581</v>
       </c>
       <c r="R17">
-        <v>18761.54206266061</v>
+        <v>42070.10382470149</v>
       </c>
       <c r="S17">
-        <v>0.1319660101090182</v>
+        <v>0.1613388290650607</v>
       </c>
       <c r="T17">
-        <v>0.1310940764322028</v>
+        <v>0.1724883916098502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H18">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I18">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J18">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N18">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O18">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P18">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q18">
-        <v>725.7160961870746</v>
+        <v>57.05576039123889</v>
       </c>
       <c r="R18">
-        <v>6531.444865683672</v>
+        <v>513.50184352115</v>
       </c>
       <c r="S18">
-        <v>0.03062750088425923</v>
+        <v>0.001312852891159386</v>
       </c>
       <c r="T18">
-        <v>0.04563770555613006</v>
+        <v>0.002105369348426718</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H19">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I19">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J19">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N19">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O19">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P19">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q19">
-        <v>5.020507937179778</v>
+        <v>30.18542522679111</v>
       </c>
       <c r="R19">
-        <v>45.18457143461799</v>
+        <v>271.66882704112</v>
       </c>
       <c r="S19">
-        <v>0.0002118812192444006</v>
+        <v>0.0006945665522311285</v>
       </c>
       <c r="T19">
-        <v>0.0003157218975616616</v>
+        <v>0.001113848428378341</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N20">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O20">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P20">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q20">
-        <v>85.86476907942149</v>
+        <v>497.9837116749615</v>
       </c>
       <c r="R20">
-        <v>343.459076317686</v>
+        <v>1991.934846699846</v>
       </c>
       <c r="S20">
-        <v>0.003623763210880722</v>
+        <v>0.01145860384893136</v>
       </c>
       <c r="T20">
-        <v>0.002399880044601161</v>
+        <v>0.008166978606245642</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.054378</v>
       </c>
       <c r="O21">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P21">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q21">
-        <v>177.684703217427</v>
+        <v>186.484566311233</v>
       </c>
       <c r="R21">
-        <v>1066.108219304562</v>
+        <v>1118.907397867398</v>
       </c>
       <c r="S21">
-        <v>0.007498853110057296</v>
+        <v>0.004291009362761916</v>
       </c>
       <c r="T21">
-        <v>0.00744930624144507</v>
+        <v>0.004587546021343332</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H22">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I22">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J22">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N22">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O22">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P22">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q22">
-        <v>5.295773533176</v>
+        <v>2.824317013989</v>
       </c>
       <c r="R22">
-        <v>31.774641199056</v>
+        <v>16.945902083934</v>
       </c>
       <c r="S22">
-        <v>0.0002234982928205215</v>
+        <v>6.498752679730241E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002220215815972301</v>
+        <v>6.947858762163454E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H23">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I23">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J23">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N23">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O23">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P23">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q23">
-        <v>1160.422935618665</v>
+        <v>2268.338151991481</v>
       </c>
       <c r="R23">
-        <v>4641.691742474662</v>
+        <v>9073.352607965922</v>
       </c>
       <c r="S23">
-        <v>0.04897349621085662</v>
+        <v>0.05219445469745131</v>
       </c>
       <c r="T23">
-        <v>0.03243327707447549</v>
+        <v>0.03720095401661839</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H24">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I24">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J24">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N24">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O24">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P24">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q24">
-        <v>269.318246853222</v>
+        <v>18.458013599245</v>
       </c>
       <c r="R24">
-        <v>1615.909481119332</v>
+        <v>110.74808159547</v>
       </c>
       <c r="S24">
-        <v>0.01136607674403559</v>
+        <v>0.000424718842631516</v>
       </c>
       <c r="T24">
-        <v>0.01129097812524575</v>
+        <v>0.0004540696773147225</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H25">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I25">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J25">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N25">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O25">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P25">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q25">
-        <v>1.8631451101305</v>
+        <v>9.765236419856</v>
       </c>
       <c r="R25">
-        <v>11.178870660783</v>
+        <v>58.591418519136</v>
       </c>
       <c r="S25">
-        <v>7.863058130836243E-05</v>
+        <v>0.0002246980634164239</v>
       </c>
       <c r="T25">
-        <v>7.811104865132675E-05</v>
+        <v>0.0002402261611860206</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N26">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O26">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P26">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q26">
-        <v>232.8675526798779</v>
+        <v>1820.236962098001</v>
       </c>
       <c r="R26">
-        <v>1397.205316079268</v>
+        <v>10921.42177258801</v>
       </c>
       <c r="S26">
-        <v>0.009827742850256034</v>
+        <v>0.04188364753881162</v>
       </c>
       <c r="T26">
-        <v>0.009762808402733213</v>
+        <v>0.0447780800231926</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H27">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I27">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J27">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.054378</v>
       </c>
       <c r="O27">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P27">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q27">
-        <v>481.8856724417506</v>
+        <v>681.6409703819419</v>
       </c>
       <c r="R27">
-        <v>4336.971051975755</v>
+        <v>6134.768733437478</v>
       </c>
       <c r="S27">
-        <v>0.02033709040817115</v>
+        <v>0.01568455687142216</v>
       </c>
       <c r="T27">
-        <v>0.03030407696089633</v>
+        <v>0.02515269266123654</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H28">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I28">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J28">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N28">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O28">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P28">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q28">
-        <v>14.362279610592</v>
+        <v>10.323482678286</v>
       </c>
       <c r="R28">
-        <v>129.260516495328</v>
+        <v>92.911344104574</v>
       </c>
       <c r="S28">
-        <v>0.0006061333540547411</v>
+        <v>0.0002375433083020091</v>
       </c>
       <c r="T28">
-        <v>0.0009031927105197394</v>
+        <v>0.0003809386440709841</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H29">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I29">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J29">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N29">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O29">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P29">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q29">
-        <v>3147.098070469053</v>
+        <v>8291.261039250507</v>
       </c>
       <c r="R29">
-        <v>18882.58842281432</v>
+        <v>49747.56623550304</v>
       </c>
       <c r="S29">
-        <v>0.1328174329363292</v>
+        <v>0.190781893924398</v>
       </c>
       <c r="T29">
-        <v>0.1319398736879311</v>
+        <v>0.2039661637684893</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H30">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I30">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J30">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N30">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O30">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P30">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q30">
-        <v>730.3982961712239</v>
+        <v>67.46798702963001</v>
       </c>
       <c r="R30">
-        <v>6573.584665541016</v>
+        <v>607.21188326667</v>
       </c>
       <c r="S30">
-        <v>0.03082510444425777</v>
+        <v>0.00155243819774164</v>
       </c>
       <c r="T30">
-        <v>0.04593215246912293</v>
+        <v>0.002489582662963613</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H31">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I31">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J31">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N31">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O31">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P31">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q31">
-        <v>5.052899422372666</v>
+        <v>35.694027451744</v>
       </c>
       <c r="R31">
-        <v>45.47609480135399</v>
+        <v>321.246247065696</v>
       </c>
       <c r="S31">
-        <v>0.0002132482417571987</v>
+        <v>0.0008213194744196289</v>
       </c>
       <c r="T31">
-        <v>0.0003177588829220879</v>
+        <v>0.001317116988775476</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H32">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I32">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J32">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.619567</v>
+        <v>8.949653</v>
       </c>
       <c r="N32">
-        <v>3.239134</v>
+        <v>17.899306</v>
       </c>
       <c r="O32">
-        <v>0.05049533395284947</v>
+        <v>0.1668927877080592</v>
       </c>
       <c r="P32">
-        <v>0.04454651624622216</v>
+        <v>0.1610232428880788</v>
       </c>
       <c r="Q32">
-        <v>229.3579634075583</v>
+        <v>1212.670926190218</v>
       </c>
       <c r="R32">
-        <v>1376.14778044535</v>
+        <v>7276.02555714131</v>
       </c>
       <c r="S32">
-        <v>0.009679627148942379</v>
+        <v>0.02790355470782972</v>
       </c>
       <c r="T32">
-        <v>0.009615671340297356</v>
+        <v>0.02983187184165153</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H33">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I33">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J33">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.054378</v>
       </c>
       <c r="O33">
-        <v>0.104492780024575</v>
+        <v>0.06249788578732534</v>
       </c>
       <c r="P33">
-        <v>0.1382738450841054</v>
+        <v>0.09044979457765322</v>
       </c>
       <c r="Q33">
-        <v>474.6230857609388</v>
+        <v>454.1200975995588</v>
       </c>
       <c r="R33">
-        <v>4271.60777184845</v>
+        <v>4087.08087839603</v>
       </c>
       <c r="S33">
-        <v>0.02003058641693099</v>
+        <v>0.01044930220855861</v>
       </c>
       <c r="T33">
-        <v>0.02984735870115785</v>
+        <v>0.0167571254407026</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H34">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I34">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J34">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2545,28 +2545,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.09988799999999999</v>
+        <v>0.050758</v>
       </c>
       <c r="N34">
-        <v>0.299664</v>
+        <v>0.152274</v>
       </c>
       <c r="O34">
-        <v>0.00311433729995871</v>
+        <v>0.0009465332475444208</v>
       </c>
       <c r="P34">
-        <v>0.004121159311225753</v>
+        <v>0.001369866143834812</v>
       </c>
       <c r="Q34">
-        <v>14.1458230804</v>
+        <v>6.877668985776666</v>
       </c>
       <c r="R34">
-        <v>127.3124077236</v>
+        <v>61.89902087199</v>
       </c>
       <c r="S34">
-        <v>0.0005969982079491348</v>
+        <v>0.0001582551446251627</v>
       </c>
       <c r="T34">
-        <v>0.0008895805287829607</v>
+        <v>0.0002537874067751926</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H35">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I35">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J35">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8877045</v>
+        <v>40.766071</v>
       </c>
       <c r="N35">
-        <v>43.775409</v>
+        <v>81.53214199999999</v>
       </c>
       <c r="O35">
-        <v>0.6824212571562561</v>
+        <v>0.7602041367519689</v>
       </c>
       <c r="P35">
-        <v>0.6020257168130494</v>
+        <v>0.7334680967212543</v>
       </c>
       <c r="Q35">
-        <v>3099.667582623288</v>
+        <v>5523.770483247361</v>
       </c>
       <c r="R35">
-        <v>18598.00549573973</v>
+        <v>33142.62289948417</v>
       </c>
       <c r="S35">
-        <v>0.1308157172294992</v>
+        <v>0.1271019437705317</v>
       </c>
       <c r="T35">
-        <v>0.1299513838362646</v>
+        <v>0.1358855148417114</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H36">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I36">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J36">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.079836</v>
+        <v>0.3317233333333334</v>
       </c>
       <c r="N36">
-        <v>15.239508</v>
+        <v>0.9951700000000001</v>
       </c>
       <c r="O36">
-        <v>0.158380613611976</v>
+        <v>0.006185964064507279</v>
       </c>
       <c r="P36">
-        <v>0.2095828671201724</v>
+        <v>0.008952609705925435</v>
       </c>
       <c r="Q36">
-        <v>719.3903305046333</v>
+        <v>44.94825015810556</v>
       </c>
       <c r="R36">
-        <v>6474.512974541701</v>
+        <v>404.53425142295</v>
       </c>
       <c r="S36">
-        <v>0.03036053368448164</v>
+        <v>0.001034259113680754</v>
       </c>
       <c r="T36">
-        <v>0.04523990063882269</v>
+        <v>0.001658599718930799</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H37">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I37">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J37">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.03514233333333333</v>
+        <v>0.1754986666666667</v>
       </c>
       <c r="N37">
-        <v>0.105427</v>
+        <v>0.526496</v>
       </c>
       <c r="O37">
-        <v>0.001095677954384734</v>
+        <v>0.003272692440594897</v>
       </c>
       <c r="P37">
-        <v>0.00144989542522491</v>
+        <v>0.004736389963253432</v>
       </c>
       <c r="Q37">
-        <v>4.976746255463889</v>
+        <v>23.77993098188444</v>
       </c>
       <c r="R37">
-        <v>44.790716299175</v>
+        <v>214.01937883696</v>
       </c>
       <c r="S37">
-        <v>0.0002100343386908452</v>
+        <v>0.000547176147106989</v>
       </c>
       <c r="T37">
-        <v>0.0003129698809600125</v>
+        <v>0.0008774843671113374</v>
       </c>
     </row>
   </sheetData>
